--- a/analysis/Pintle Test 01-26-2019/00 Pintle Data Analysis 01-26-2019.xlsx
+++ b/analysis/Pintle Test 01-26-2019/00 Pintle Data Analysis 01-26-2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3196C-C933-4110-ACD2-86C59373F627}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE3ABA6-4D43-4C96-BBC6-875EE62F329C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9285" windowHeight="5640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summary" sheetId="4" r:id="rId1"/>
@@ -73,7 +73,7 @@
     approx -0.04, within the error of the P.T.</t>
       </text>
     </comment>
-    <comment ref="N49" authorId="1" shapeId="0" xr:uid="{C6EF0B7F-EEBF-4D63-9A80-FC15F9E48BBA}">
+    <comment ref="O49" authorId="1" shapeId="0" xr:uid="{C6EF0B7F-EEBF-4D63-9A80-FC15F9E48BBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +89,7 @@
     approx - 0.05 , within error of P.T.</t>
       </text>
     </comment>
-    <comment ref="N50" authorId="3" shapeId="0" xr:uid="{BB4AFBFC-5C20-4ED6-8C5E-1B51194AAAAE}">
+    <comment ref="O50" authorId="3" shapeId="0" xr:uid="{BB4AFBFC-5C20-4ED6-8C5E-1B51194AAAAE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>slope</t>
   </si>
@@ -268,15 +268,44 @@
   <si>
     <t>Using experimental C_d for orifice</t>
   </si>
+  <si>
+    <t>Flow velocity (in/s)</t>
+  </si>
+  <si>
+    <t>Water Density (slug/in^3)</t>
+  </si>
+  <si>
+    <t>Fuel side mass flow (slugs/s)</t>
+  </si>
+  <si>
+    <t>Reynolds Number</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Annulus area</t>
+  </si>
+  <si>
+    <t>Hydrolic Dia.</t>
+  </si>
+  <si>
+    <t>dynamic visc.</t>
+  </si>
+  <si>
+    <t>units in inches</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,12 +327,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -381,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -441,12 +464,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,13 +553,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1729,7 +1768,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7663,7 +7702,7 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -7693,16 +7732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8180,10 +8219,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8458,13 +8493,13 @@
   <threadedComment ref="D49" dT="2019-01-27T21:48:36.93" personId="{00000000-0000-0000-0000-000000000000}" id="{70C2862F-1961-4231-AA58-FF1314A0673A}">
     <text>approx -0.04, within the error of the P.T.</text>
   </threadedComment>
-  <threadedComment ref="N49" dT="2019-01-27T21:48:36.93" personId="{00000000-0000-0000-0000-000000000000}" id="{C6EF0B7F-EEBF-4D63-9A80-FC15F9E48BBA}">
+  <threadedComment ref="O49" dT="2019-01-27T21:48:36.93" personId="{00000000-0000-0000-0000-000000000000}" id="{C6EF0B7F-EEBF-4D63-9A80-FC15F9E48BBA}">
     <text>approx -0.04, within the error of the P.T.</text>
   </threadedComment>
   <threadedComment ref="D50" dT="2019-01-27T21:53:12.57" personId="{00000000-0000-0000-0000-000000000000}" id="{DE3CD0C8-8538-413D-ACAA-E3DA02E2498A}">
     <text>approx - 0.05 , within error of P.T.</text>
   </threadedComment>
-  <threadedComment ref="N50" dT="2019-01-27T21:53:12.57" personId="{00000000-0000-0000-0000-000000000000}" id="{BB4AFBFC-5C20-4ED6-8C5E-1B51194AAAAE}">
+  <threadedComment ref="O50" dT="2019-01-27T21:53:12.57" personId="{00000000-0000-0000-0000-000000000000}" id="{BB4AFBFC-5C20-4ED6-8C5E-1B51194AAAAE}">
     <text>approx - 0.05 , within error of P.T.</text>
   </threadedComment>
 </ThreadedComments>
@@ -8506,10 +8541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:R117"/>
+  <dimension ref="A3:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,10 +8554,10 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="15" width="11" customWidth="1"/>
+    <col min="12" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -8965,7 +9000,7 @@
         <v>5.1059806587540582</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
@@ -8997,7 +9032,7 @@
         <v>7.2209470968246992</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
@@ -9029,7 +9064,7 @@
         <v>8.8438179234260339</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
@@ -9061,7 +9096,7 @@
         <v>10.211961317508116</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>10</v>
       </c>
@@ -9093,7 +9128,7 @@
         <v>11.41731984477323</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>8</v>
       </c>
@@ -9125,7 +9160,7 @@
         <v>12.507047250467361</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
@@ -9157,7 +9192,7 @@
         <v>13.509155022168992</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J39" s="9">
         <v>40</v>
       </c>
@@ -9166,7 +9201,7 @@
         <v>14.441894193649398</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G40" s="14" t="s">
         <v>16</v>
       </c>
@@ -9175,7 +9210,7 @@
         <v>2.2834639689546461</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>19</v>
       </c>
@@ -9183,18 +9218,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>42</v>
       </c>
       <c r="M46" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46" s="38"/>
+      <c r="O46" s="38">
         <v>3.5575999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:18" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="15" t="s">
         <v>23</v>
@@ -9218,23 +9254,24 @@
       <c r="M48" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="39" t="s">
+      <c r="N48" s="40"/>
+      <c r="O48" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O48" s="39" t="s">
+      <c r="P48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="39" t="s">
+      <c r="Q48" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Q48" s="39" t="s">
+      <c r="R48" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R48" s="39" t="s">
+      <c r="S48" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>8</v>
       </c>
@@ -9245,18 +9282,18 @@
         <v>0</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" ref="E49:E51" si="5">$H$40*SQRT(D49)</f>
+        <f>$H$40*SQRT(D49)</f>
         <v>0</v>
       </c>
       <c r="F49" s="7">
         <v>20.99</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" ref="G49:G51" si="6">E49/SQRT(F49)</f>
+        <f>E49/SQRT(F49)</f>
         <v>0</v>
       </c>
       <c r="H49" s="18">
-        <f t="shared" ref="H49:H51" si="7">E49/7.19</f>
+        <f>E49/7.19</f>
         <v>0</v>
       </c>
       <c r="L49" s="7" t="s">
@@ -9265,26 +9302,27 @@
       <c r="M49" s="7">
         <v>25</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="7"/>
+      <c r="O49" s="7">
         <v>0</v>
       </c>
-      <c r="O49" s="7">
-        <f t="shared" ref="O49:O50" si="8">$N$46*SQRT(N49)</f>
+      <c r="P49" s="7">
+        <f>$O$46*SQRT(O49)</f>
         <v>0</v>
       </c>
-      <c r="P49" s="7">
+      <c r="Q49" s="7">
         <v>20.99</v>
       </c>
-      <c r="Q49" s="7">
-        <f t="shared" ref="Q49:Q60" si="9">O49/SQRT(P49)</f>
+      <c r="R49" s="7">
+        <f t="shared" ref="R49:R60" si="5">P49/SQRT(Q49)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="18">
-        <f t="shared" ref="R49:R60" si="10">O49/7.19</f>
+      <c r="S49" s="18">
+        <f t="shared" ref="S49:S60" si="6">P49/7.19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>9</v>
       </c>
@@ -9295,46 +9333,47 @@
         <v>0</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" ref="E50" si="11">$H$40*SQRT(D50)</f>
+        <f>$H$40*SQRT(D50)</f>
         <v>0</v>
       </c>
       <c r="F50" s="7">
         <v>21.48</v>
       </c>
       <c r="G50" s="7">
+        <f>E50/SQRT(F50)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="18">
+        <f>E50/7.19</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="7">
+        <v>25</v>
+      </c>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <f>$O$46*SQRT(O50)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>21.48</v>
+      </c>
+      <c r="R50" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H50" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M50" s="7">
-        <v>25</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="7">
-        <v>21.48</v>
-      </c>
-      <c r="Q50" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>10</v>
       </c>
@@ -9345,18 +9384,18 @@
         <v>4.4650000000000002E-2</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="5"/>
+        <f>$H$40*SQRT(D51)</f>
         <v>0.48250841826231877</v>
       </c>
       <c r="F51" s="7">
         <v>21.34</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="6"/>
+        <f>E51/SQRT(F51)</f>
         <v>0.10444981792952537</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" si="7"/>
+        <f>E51/7.19</f>
         <v>6.7108264014230701E-2</v>
       </c>
       <c r="L51" s="7" t="s">
@@ -9365,26 +9404,27 @@
       <c r="M51" s="7">
         <v>25</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="7"/>
+      <c r="O51" s="7">
         <v>4.4650000000000002E-2</v>
       </c>
-      <c r="O51" s="7">
-        <f>$N$46*SQRT(N51)</f>
+      <c r="P51" s="7">
+        <f>$O$46*SQRT(O51)</f>
         <v>0.75174032616589082</v>
       </c>
-      <c r="P51" s="7">
+      <c r="Q51" s="7">
         <v>21.34</v>
       </c>
-      <c r="Q51" s="7">
-        <f t="shared" si="9"/>
+      <c r="R51" s="7">
+        <f t="shared" si="5"/>
         <v>0.16273113012428705</v>
       </c>
-      <c r="R51" s="18">
-        <f t="shared" si="10"/>
+      <c r="S51" s="18">
+        <f t="shared" si="6"/>
         <v>0.10455359195631304</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
@@ -9395,18 +9435,18 @@
         <v>1.217E-2</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" ref="E52:E60" si="12">$H$40*SQRT(D52)</f>
+        <f t="shared" ref="E52:E60" si="7">$H$40*SQRT(D52)</f>
         <v>0.25190654552580938</v>
       </c>
       <c r="F52" s="6">
         <v>35.194699999999997</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ref="G52:G60" si="13">E52/SQRT(F52)</f>
+        <f t="shared" ref="G52:G60" si="8">E52/SQRT(F52)</f>
         <v>4.2462036422923011E-2</v>
       </c>
       <c r="H52" s="18">
-        <f t="shared" ref="H52:H60" si="14">E52/7.19</f>
+        <f t="shared" ref="H52:H60" si="9">E52/7.19</f>
         <v>3.5035680879806588E-2</v>
       </c>
       <c r="L52" s="6" t="s">
@@ -9415,26 +9455,27 @@
       <c r="M52" s="6">
         <v>50</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="6"/>
+      <c r="O52" s="6">
         <v>1.217E-2</v>
       </c>
-      <c r="O52" s="6">
-        <f t="shared" ref="O52:O60" si="15">$N$46*SQRT(N52)</f>
+      <c r="P52" s="6">
+        <f t="shared" ref="P52:P60" si="10">$O$46*SQRT(O52)</f>
         <v>0.39246633121734148</v>
       </c>
-      <c r="P52" s="6">
+      <c r="Q52" s="6">
         <v>35.194699999999997</v>
       </c>
-      <c r="Q52" s="6">
-        <f t="shared" si="9"/>
+      <c r="R52" s="6">
+        <f t="shared" si="5"/>
         <v>6.61551672511594E-2</v>
       </c>
-      <c r="R52" s="18">
-        <f t="shared" si="10"/>
+      <c r="S52" s="18">
+        <f t="shared" si="6"/>
         <v>5.4585025204080873E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>9</v>
       </c>
@@ -9445,18 +9486,18 @@
         <v>0.1197</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0.790025734639346</v>
       </c>
       <c r="F53" s="6">
         <v>40.255000000000003</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0.12451776675058436</v>
       </c>
       <c r="H53" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.10987840537403977</v>
       </c>
       <c r="L53" s="6" t="s">
@@ -9465,26 +9506,27 @@
       <c r="M53" s="6">
         <v>50</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="6"/>
+      <c r="O53" s="6">
         <v>0.1197</v>
       </c>
-      <c r="O53" s="6">
-        <f t="shared" si="15"/>
+      <c r="P53" s="6">
+        <f t="shared" si="10"/>
         <v>1.2308473406040246</v>
       </c>
-      <c r="P53" s="6">
+      <c r="Q53" s="6">
         <v>40.255000000000003</v>
       </c>
-      <c r="Q53" s="6">
-        <f t="shared" si="9"/>
+      <c r="R53" s="6">
+        <f t="shared" si="5"/>
         <v>0.19399667041590066</v>
       </c>
-      <c r="R53" s="18">
-        <f t="shared" si="10"/>
+      <c r="S53" s="18">
+        <f t="shared" si="6"/>
         <v>0.17118878172517726</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
@@ -9495,18 +9537,18 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0.36819750153330311</v>
       </c>
       <c r="F54" s="6">
         <v>38.444000000000003</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>5.9383604198428704E-2</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>5.1209666416314754E-2</v>
       </c>
       <c r="L54" s="6" t="s">
@@ -9515,26 +9557,27 @@
       <c r="M54" s="6">
         <v>50</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="6"/>
+      <c r="O54" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O54" s="6">
-        <f t="shared" si="15"/>
+      <c r="P54" s="6">
+        <f t="shared" si="10"/>
         <v>0.57364576330693839</v>
       </c>
-      <c r="P54" s="6">
+      <c r="Q54" s="6">
         <v>38.444000000000003</v>
       </c>
-      <c r="Q54" s="6">
-        <f t="shared" si="9"/>
+      <c r="R54" s="6">
+        <f t="shared" si="5"/>
         <v>9.2518696668134739E-2</v>
       </c>
-      <c r="R54" s="18">
-        <f t="shared" si="10"/>
+      <c r="S54" s="18">
+        <f t="shared" si="6"/>
         <v>7.9783833561465692E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>8</v>
       </c>
@@ -9545,18 +9588,18 @@
         <v>0.3826</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1.4124290654998914</v>
       </c>
       <c r="F55" s="7">
         <v>66.349999999999994</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0.1733988378612982</v>
       </c>
       <c r="H55" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.19644354179414344</v>
       </c>
       <c r="L55" s="7" t="s">
@@ -9565,26 +9608,27 @@
       <c r="M55" s="7">
         <v>75</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="7"/>
+      <c r="O55" s="7">
         <v>0.3826</v>
       </c>
-      <c r="O55" s="7">
-        <f t="shared" si="15"/>
+      <c r="P55" s="7">
+        <f t="shared" si="10"/>
         <v>2.2005416821719148</v>
       </c>
-      <c r="P55" s="7">
+      <c r="Q55" s="7">
         <v>66.349999999999994</v>
       </c>
-      <c r="Q55" s="7">
-        <f t="shared" si="9"/>
+      <c r="R55" s="7">
+        <f t="shared" si="5"/>
         <v>0.27015259008345976</v>
       </c>
-      <c r="R55" s="18">
-        <f t="shared" si="10"/>
+      <c r="S55" s="18">
+        <f t="shared" si="6"/>
         <v>0.30605586678329827</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>9</v>
       </c>
@@ -9595,18 +9639,18 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1.3547697625519124</v>
       </c>
       <c r="F56" s="7">
         <v>64.349000000000004</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0.1688863671404674</v>
       </c>
       <c r="H56" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.18842416725339531</v>
       </c>
       <c r="L56" s="7" t="s">
@@ -9615,26 +9659,27 @@
       <c r="M56" s="7">
         <v>75</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="7"/>
+      <c r="O56" s="7">
         <v>0.35199999999999998</v>
       </c>
-      <c r="O56" s="7">
-        <f t="shared" si="15"/>
+      <c r="P56" s="7">
+        <f t="shared" si="10"/>
         <v>2.1107094190153224</v>
       </c>
-      <c r="P56" s="7">
+      <c r="Q56" s="7">
         <v>64.349000000000004</v>
       </c>
-      <c r="Q56" s="7">
-        <f t="shared" si="9"/>
+      <c r="R56" s="7">
+        <f t="shared" si="5"/>
         <v>0.26312223354852526</v>
       </c>
-      <c r="R56" s="18">
-        <f t="shared" si="10"/>
+      <c r="S56" s="18">
+        <f t="shared" si="6"/>
         <v>0.29356181071144954</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>10</v>
       </c>
@@ -9645,18 +9690,18 @@
         <v>0.2157</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1.0605209099088015</v>
       </c>
       <c r="F57" s="7">
         <v>68.510000000000005</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0.12812747039410655</v>
       </c>
       <c r="H57" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.147499431141697</v>
       </c>
       <c r="L57" s="7" t="s">
@@ -9665,26 +9710,27 @@
       <c r="M57" s="7">
         <v>75</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="7"/>
+      <c r="O57" s="7">
         <v>0.2157</v>
       </c>
-      <c r="O57" s="7">
-        <f t="shared" si="15"/>
+      <c r="P57" s="7">
+        <f t="shared" si="10"/>
         <v>1.6522744568721019</v>
       </c>
-      <c r="P57" s="7">
+      <c r="Q57" s="7">
         <v>68.510000000000005</v>
       </c>
-      <c r="Q57" s="7">
-        <f t="shared" si="9"/>
+      <c r="R57" s="7">
+        <f t="shared" si="5"/>
         <v>0.19962053041841843</v>
       </c>
-      <c r="R57" s="18">
-        <f t="shared" si="10"/>
+      <c r="S57" s="18">
+        <f t="shared" si="6"/>
         <v>0.22980173252741334</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>8</v>
       </c>
@@ -9695,18 +9741,18 @@
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0.61653527161775445</v>
       </c>
       <c r="F58" s="6">
         <v>81.625</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>6.824114894382563E-2</v>
       </c>
       <c r="H58" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>8.5748994661718272E-2</v>
       </c>
       <c r="L58" s="6" t="s">
@@ -9715,26 +9761,27 @@
       <c r="M58" s="6">
         <v>100</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="6"/>
+      <c r="O58" s="6">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="O58" s="6">
-        <f t="shared" si="15"/>
+      <c r="P58" s="6">
+        <f t="shared" si="10"/>
         <v>0.96055200000000007</v>
       </c>
-      <c r="P58" s="6">
+      <c r="Q58" s="6">
         <v>81.625</v>
       </c>
-      <c r="Q58" s="6">
-        <f t="shared" si="9"/>
+      <c r="R58" s="6">
+        <f t="shared" si="5"/>
         <v>0.10631860838763077</v>
       </c>
-      <c r="R58" s="18">
-        <f t="shared" si="10"/>
+      <c r="S58" s="18">
+        <f t="shared" si="6"/>
         <v>0.13359554937413073</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>9</v>
       </c>
@@ -9745,18 +9792,18 @@
         <v>0.33460000000000001</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1.3208610432548231</v>
       </c>
       <c r="F59" s="6">
         <v>83.12</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0.14487864124162667</v>
       </c>
       <c r="H59" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.18370807277535786</v>
       </c>
       <c r="L59" s="6" t="s">
@@ -9765,26 +9812,27 @@
       <c r="M59" s="6">
         <v>100</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="6"/>
+      <c r="O59" s="6">
         <v>0.33460000000000001</v>
       </c>
-      <c r="O59" s="6">
-        <f t="shared" si="15"/>
+      <c r="P59" s="6">
+        <f t="shared" si="10"/>
         <v>2.0578801817637489</v>
       </c>
-      <c r="P59" s="6">
+      <c r="Q59" s="6">
         <v>83.12</v>
       </c>
-      <c r="Q59" s="6">
-        <f t="shared" si="9"/>
+      <c r="R59" s="6">
+        <f t="shared" si="5"/>
         <v>0.22571858417243465</v>
       </c>
-      <c r="R59" s="18">
-        <f t="shared" si="10"/>
+      <c r="S59" s="18">
+        <f t="shared" si="6"/>
         <v>0.28621421165003458</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
@@ -9795,18 +9843,18 @@
         <v>0.36649999999999999</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>1.3823918117302776</v>
       </c>
       <c r="F60" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0.16359952817227849</v>
       </c>
       <c r="H60" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.19226589871074792</v>
       </c>
       <c r="L60" s="6" t="s">
@@ -9815,26 +9863,27 @@
       <c r="M60" s="6">
         <v>100</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="6"/>
+      <c r="O60" s="6">
         <v>0.36649999999999999</v>
       </c>
-      <c r="O60" s="6">
-        <f t="shared" si="15"/>
+      <c r="P60" s="6">
+        <f t="shared" si="10"/>
         <v>2.1537441257122443</v>
       </c>
-      <c r="P60" s="6">
+      <c r="Q60" s="6">
         <v>71.400000000000006</v>
       </c>
-      <c r="Q60" s="6">
-        <f t="shared" si="9"/>
+      <c r="R60" s="6">
+        <f t="shared" si="5"/>
         <v>0.25488542378540063</v>
       </c>
-      <c r="R60" s="18">
-        <f t="shared" si="10"/>
+      <c r="S60" s="18">
+        <f t="shared" si="6"/>
         <v>0.29954716630212019</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>19</v>
       </c>
@@ -9842,35 +9891,64 @@
         <f>AVERAGE(G51:G60)</f>
         <v>0.11779452190550643</v>
       </c>
-      <c r="P62" t="s">
+      <c r="M62" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q62" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="14">
-        <f>AVERAGE(Q51:Q60)</f>
+      <c r="R62" s="14">
+        <f>AVERAGE(R51:R60)</f>
         <v>0.18352196348553515</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G63">
         <f>_xlfn.STDEV.S(G51:G60)</f>
         <v>4.7616842421685367E-2</v>
       </c>
-      <c r="Q63">
-        <f>_xlfn.STDEV.S(Q51:Q60)</f>
+      <c r="L63" t="s">
+        <v>59</v>
+      </c>
+      <c r="M63">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="R63">
+        <f>_xlfn.STDEV.S(R51:R60)</f>
         <v>7.418627177942233E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64">
+        <v>2.2749999999999998E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>26</v>
       </c>
+      <c r="L65" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65">
+        <v>1.370460890266291E-2</v>
+      </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>27</v>
       </c>
+      <c r="L66" t="s">
+        <v>61</v>
+      </c>
+      <c r="M66">
+        <v>2.9499999999999998E-2</v>
+      </c>
     </row>
-    <row r="68" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" ht="60" x14ac:dyDescent="0.25">
       <c r="B68" s="17"/>
       <c r="C68" s="15" t="s">
         <v>23</v>
@@ -9896,8 +9974,22 @@
       <c r="J68" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="K68" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M68" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N68" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>8</v>
       </c>
@@ -9914,22 +10006,37 @@
         <v>2.5601706255431007</v>
       </c>
       <c r="G69" s="33">
-        <f t="shared" ref="G69:G73" si="16">$H$40*SQRT(F69)</f>
+        <f>$H$40*SQRT(F69)</f>
         <v>3.6536641036986879</v>
       </c>
       <c r="H69" s="7">
         <v>18.86</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" ref="I69:I73" si="17">G69/SQRT(H69)</f>
+        <f>G69/SQRT(H69)</f>
         <v>0.84131333799989072</v>
       </c>
       <c r="J69" s="18">
-        <f t="shared" ref="J69:J73" si="18">G69/7.19</f>
+        <f>G69/7.19</f>
         <v>0.50815912429745314</v>
       </c>
+      <c r="K69" s="43">
+        <f t="shared" ref="K69:K80" si="11">J69/32.17</f>
+        <v>1.5796056086336746E-2</v>
+      </c>
+      <c r="L69">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M69" s="44">
+        <f t="shared" ref="M69:M80" si="12">K69/($M$63*$M$65)</f>
+        <v>1026.6402763067429</v>
+      </c>
+      <c r="N69" s="45">
+        <f t="shared" ref="N69:N81" si="13">($M$63*$M$66*M69)/$M$64</f>
+        <v>14945.919396563788</v>
+      </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>9</v>
       </c>
@@ -9946,22 +10053,37 @@
         <v>2.3101261098992993</v>
       </c>
       <c r="G70" s="33">
-        <f t="shared" si="16"/>
+        <f>$H$40*SQRT(F70)</f>
         <v>3.4706594970502715</v>
       </c>
       <c r="H70" s="7">
         <v>17.05</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="17"/>
+        <f>G70/SQRT(H70)</f>
         <v>0.84052341409746301</v>
       </c>
       <c r="J70" s="18">
-        <f t="shared" si="18"/>
+        <f>G70/7.19</f>
         <v>0.48270646690546193</v>
       </c>
+      <c r="K70" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5004863752112586E-2</v>
+      </c>
+      <c r="L70">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M70" s="44">
+        <f t="shared" si="12"/>
+        <v>975.21795214050587</v>
+      </c>
+      <c r="N70" s="45">
+        <f t="shared" si="13"/>
+        <v>14197.308680707827</v>
+      </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>10</v>
       </c>
@@ -9978,22 +10100,37 @@
         <v>2.4996394525607091</v>
       </c>
       <c r="G71" s="33">
-        <f t="shared" si="16"/>
+        <f>$H$40*SQRT(F71)</f>
         <v>3.6102131896263399</v>
       </c>
       <c r="H71" s="7">
         <v>17.8</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="17"/>
+        <f>G71/SQRT(H71)</f>
         <v>0.85570259175523644</v>
       </c>
       <c r="J71" s="18">
-        <f t="shared" si="18"/>
+        <f>G71/7.19</f>
         <v>0.50211588172828092</v>
       </c>
+      <c r="K71" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5608202727021476E-2</v>
+      </c>
+      <c r="L71">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M71" s="44">
+        <f t="shared" si="12"/>
+        <v>1014.4310372626122</v>
+      </c>
+      <c r="N71" s="45">
+        <f t="shared" si="13"/>
+        <v>14768.176221219635</v>
+      </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>8</v>
       </c>
@@ -10010,22 +10147,37 @@
         <v>4.5587604812279308</v>
       </c>
       <c r="G72" s="32">
-        <f t="shared" si="16"/>
+        <f>$H$40*SQRT(F72)</f>
         <v>4.8754819241118899</v>
       </c>
       <c r="H72" s="6">
         <v>34.478000000000002</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="17"/>
+        <f>G72/SQRT(H72)</f>
         <v>0.83032194824906325</v>
       </c>
       <c r="J72" s="18">
-        <f t="shared" si="18"/>
+        <f>G72/7.19</f>
         <v>0.67809206176799575</v>
       </c>
+      <c r="K72" s="43">
+        <f t="shared" si="11"/>
+        <v>2.1078397941187307E-2</v>
+      </c>
+      <c r="L72">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M72" s="44">
+        <f t="shared" si="12"/>
+        <v>1369.9579292556514</v>
+      </c>
+      <c r="N72" s="45">
+        <f t="shared" si="13"/>
+        <v>19943.967969965688</v>
+      </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>9</v>
       </c>
@@ -10042,22 +10194,37 @@
         <v>4.549955230926912</v>
       </c>
       <c r="G73" s="32">
-        <f t="shared" si="16"/>
+        <f>$H$40*SQRT(F73)</f>
         <v>4.8707711492579557</v>
       </c>
       <c r="H73" s="6">
         <v>35.08</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="17"/>
+        <f>G73/SQRT(H73)</f>
         <v>0.82237127568024804</v>
       </c>
       <c r="J73" s="18">
-        <f t="shared" si="18"/>
+        <f>G73/7.19</f>
         <v>0.67743687750458348</v>
       </c>
+      <c r="K73" s="43">
+        <f t="shared" si="11"/>
+        <v>2.1058031628989227E-2</v>
+      </c>
+      <c r="L73">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M73" s="44">
+        <f t="shared" si="12"/>
+        <v>1368.6342522398122</v>
+      </c>
+      <c r="N73" s="45">
+        <f t="shared" si="13"/>
+        <v>19924.697763601889</v>
+      </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
@@ -10074,22 +10241,37 @@
         <v>4.7387199978658288</v>
       </c>
       <c r="G74" s="32">
-        <f t="shared" ref="G74:G80" si="19">$H$40*SQRT(F74)</f>
+        <f t="shared" ref="G74:G80" si="14">$H$40*SQRT(F74)</f>
         <v>4.9707816577713437</v>
       </c>
       <c r="H74" s="6">
         <v>35.82</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" ref="I74:I80" si="20">G74/SQRT(H74)</f>
+        <f t="shared" ref="I74:I80" si="15">G74/SQRT(H74)</f>
         <v>0.83054256800305193</v>
       </c>
       <c r="J74" s="18">
-        <f t="shared" ref="J74:J80" si="21">G74/7.19</f>
+        <f t="shared" ref="J74:J80" si="16">G74/7.19</f>
         <v>0.69134654489170289</v>
       </c>
+      <c r="K74" s="43">
+        <f t="shared" si="11"/>
+        <v>2.1490411715626448E-2</v>
+      </c>
+      <c r="L74">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M74" s="44">
+        <f t="shared" si="12"/>
+        <v>1396.7361283782957</v>
+      </c>
+      <c r="N74" s="45">
+        <f t="shared" si="13"/>
+        <v>20333.807346920537</v>
+      </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>8</v>
       </c>
@@ -10106,22 +10288,37 @@
         <v>8.0624687938149933</v>
       </c>
       <c r="G75" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>6.4837787474340454</v>
       </c>
       <c r="H75" s="7">
         <v>61.798000000000002</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0.82478542259662746</v>
       </c>
       <c r="J75" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0.90177729449708555</v>
       </c>
+      <c r="K75" s="43">
+        <f t="shared" si="11"/>
+        <v>2.8031622458721962E-2</v>
+      </c>
+      <c r="L75">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M75" s="44">
+        <f t="shared" si="12"/>
+        <v>1821.8720210319659</v>
+      </c>
+      <c r="N75" s="45">
+        <f t="shared" si="13"/>
+        <v>26522.973046756637</v>
+      </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>9</v>
       </c>
@@ -10138,22 +10335,37 @@
         <v>8.2977464611386704</v>
       </c>
       <c r="G76" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>6.5777027501772745</v>
       </c>
       <c r="H76" s="7">
         <v>62.8277</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0.82984821264353559</v>
       </c>
       <c r="J76" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0.91484043813313964</v>
       </c>
+      <c r="K76" s="43">
+        <f t="shared" si="11"/>
+        <v>2.8437688471654947E-2</v>
+      </c>
+      <c r="L76">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M76" s="44">
+        <f t="shared" si="12"/>
+        <v>1848.2636545788289</v>
+      </c>
+      <c r="N76" s="45">
+        <f t="shared" si="13"/>
+        <v>26907.184768075476</v>
+      </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>10</v>
       </c>
@@ -10170,22 +10382,37 @@
         <v>7.9384269371410419</v>
       </c>
       <c r="G77" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>6.4337086382423427</v>
       </c>
       <c r="H77" s="7">
         <v>61.003999999999998</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0.82372497350441942</v>
       </c>
       <c r="J77" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0.89481344064566648</v>
       </c>
+      <c r="K77" s="43">
+        <f t="shared" si="11"/>
+        <v>2.7815152025044029E-2</v>
+      </c>
+      <c r="L77">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M77" s="44">
+        <f t="shared" si="12"/>
+        <v>1807.8028594242412</v>
+      </c>
+      <c r="N77" s="45">
+        <f t="shared" si="13"/>
+        <v>26318.152955222009</v>
+      </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>8</v>
       </c>
@@ -10202,22 +10429,37 @@
         <v>9.6766842561792217</v>
       </c>
       <c r="G78" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>7.103255699676259</v>
       </c>
       <c r="H78" s="6">
         <v>76.248000000000005</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0.81347314493824308</v>
       </c>
       <c r="J78" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0.9879354241552516</v>
       </c>
+      <c r="K78" s="43">
+        <f t="shared" si="11"/>
+        <v>3.0709836001095791E-2</v>
+      </c>
+      <c r="L78">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M78" s="44">
+        <f t="shared" si="12"/>
+        <v>1995.9383750714048</v>
+      </c>
+      <c r="N78" s="45">
+        <f t="shared" si="13"/>
+        <v>29057.046331399411</v>
+      </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>9</v>
       </c>
@@ -10234,22 +10476,37 @@
         <v>8.9969028079664</v>
       </c>
       <c r="G79" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>6.8492130843685013</v>
       </c>
       <c r="H79" s="6">
         <v>69.388000000000005</v>
       </c>
       <c r="I79" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0.82223979630600486</v>
       </c>
       <c r="J79" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0.95260265429325464</v>
       </c>
+      <c r="K79" s="43">
+        <f t="shared" si="11"/>
+        <v>2.9611521737434088E-2</v>
+      </c>
+      <c r="L79">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M79" s="44">
+        <f t="shared" si="12"/>
+        <v>1924.555135295964</v>
+      </c>
+      <c r="N79" s="45">
+        <f t="shared" si="13"/>
+        <v>28017.84285129889</v>
+      </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>10</v>
       </c>
@@ -10266,22 +10523,47 @@
         <v>10.161799963955573</v>
       </c>
       <c r="G80" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>7.2791301398350958</v>
       </c>
       <c r="H80" s="6">
         <v>78.022000000000006</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0.82408297995161683</v>
       </c>
       <c r="J80" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>1.0123964033150341</v>
       </c>
+      <c r="K80" s="43">
+        <f t="shared" si="11"/>
+        <v>3.1470202154648248E-2</v>
+      </c>
+      <c r="L80">
+        <v>1.1226999999999999E-3</v>
+      </c>
+      <c r="M80" s="44">
+        <f t="shared" si="12"/>
+        <v>2045.3571992203399</v>
+      </c>
+      <c r="N80" s="45">
+        <f t="shared" si="13"/>
+        <v>29776.489917871619</v>
+      </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M81" s="44">
+        <f>M80/12</f>
+        <v>170.44643326836166</v>
+      </c>
+      <c r="N81" s="45">
+        <f t="shared" si="13"/>
+        <v>2481.3741598226352</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
         <v>26</v>
       </c>
@@ -10290,7 +10572,7 @@
         <v>0.82991080547711682</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
         <v>45</v>
       </c>
@@ -10299,7 +10581,7 @@
         <v>1.1252542022634905E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
       <c r="C87" s="15" t="s">
         <v>23</v>
@@ -10334,11 +10616,12 @@
       <c r="M87" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N87" s="16" t="s">
+      <c r="N87" s="16"/>
+      <c r="O87" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
         <v>8</v>
       </c>
@@ -10352,7 +10635,7 @@
         <v>17.712557610417349</v>
       </c>
       <c r="F88" s="7">
-        <f>SQRT(E88)*$I$82</f>
+        <f t="shared" ref="F88:F99" si="17">SQRT(E88)*$I$82</f>
         <v>3.4927866390525462</v>
       </c>
       <c r="G88" s="18">
@@ -10363,7 +10646,7 @@
         <v>22.790454945960363</v>
       </c>
       <c r="I88" s="33">
-        <f>SQRT(H88)*$G$62</f>
+        <f t="shared" ref="I88:I99" si="18">SQRT(H88)*$G$62</f>
         <v>0.56234338552598051</v>
       </c>
       <c r="J88" s="18">
@@ -10371,23 +10654,24 @@
         <v>7.8211875594712169E-2</v>
       </c>
       <c r="K88" s="33">
-        <f>$H$40*SQRT(D88)</f>
+        <f t="shared" ref="K88:K99" si="19">$H$40*SQRT(D88)</f>
         <v>2.3425690523276339</v>
       </c>
       <c r="L88" s="18">
-        <f>K88-F88</f>
+        <f t="shared" ref="L88:L99" si="20">K88-F88</f>
         <v>-1.1502175867249123</v>
       </c>
       <c r="M88" s="18">
-        <f>I88+F88</f>
+        <f t="shared" ref="M88:M99" si="21">I88+F88</f>
         <v>4.0551300245785269</v>
       </c>
-      <c r="N88" s="18">
-        <f t="shared" ref="N88:N98" si="22">K88-M88</f>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18">
+        <f t="shared" ref="O88:O98" si="22">K88-M88</f>
         <v>-1.712560972250893</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>9</v>
       </c>
@@ -10401,7 +10685,7 @@
         <v>16.859004461860582</v>
       </c>
       <c r="F89" s="7">
-        <f>SQRT(E89)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>3.4075903677927517</v>
       </c>
       <c r="G89" s="18">
@@ -10412,7 +10696,7 @@
         <v>20.727594593341699</v>
       </c>
       <c r="I89" s="33">
-        <f>SQRT(H89)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.53628981207499682</v>
       </c>
       <c r="J89" s="18">
@@ -10420,23 +10704,24 @@
         <v>7.4588290970096907E-2</v>
       </c>
       <c r="K89" s="33">
-        <f>$H$40*SQRT(D89)</f>
+        <f t="shared" si="19"/>
         <v>2.3830845561726908</v>
       </c>
       <c r="L89" s="18">
-        <f>K89-F89</f>
+        <f t="shared" si="20"/>
         <v>-1.0245058116200609</v>
       </c>
       <c r="M89" s="18">
-        <f>I89+F89</f>
+        <f t="shared" si="21"/>
         <v>3.9438801798677483</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N89" s="18"/>
+      <c r="O89" s="18">
         <f t="shared" si="22"/>
         <v>-1.5607956236950575</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>10</v>
       </c>
@@ -10450,7 +10735,7 @@
         <v>17.300053439952322</v>
       </c>
       <c r="F90" s="7">
-        <f>SQRT(E90)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>3.4518756432113702</v>
       </c>
       <c r="G90" s="18">
@@ -10461,7 +10746,7 @@
         <v>21.465801684486976</v>
       </c>
       <c r="I90" s="33">
-        <f>SQRT(H90)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.54575616486611389</v>
       </c>
       <c r="J90" s="18">
@@ -10469,23 +10754,24 @@
         <v>7.5904890801962985E-2</v>
       </c>
       <c r="K90" s="33">
-        <f>$H$40*SQRT(D90)</f>
+        <f t="shared" si="19"/>
         <v>2.2822032209092136</v>
       </c>
       <c r="L90" s="18">
-        <f>K90-F90</f>
+        <f t="shared" si="20"/>
         <v>-1.1696724223021566</v>
       </c>
       <c r="M90" s="18">
-        <f>I90+F90</f>
+        <f t="shared" si="21"/>
         <v>3.9976318080774842</v>
       </c>
-      <c r="N90" s="18">
+      <c r="N90" s="18"/>
+      <c r="O90" s="18">
         <f t="shared" si="22"/>
         <v>-1.7154285871682706</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>8</v>
       </c>
@@ -10499,7 +10785,7 @@
         <v>33.212592199377731</v>
       </c>
       <c r="F91" s="6">
-        <f>SQRT(E91)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>4.7828064436475701</v>
       </c>
       <c r="G91" s="18">
@@ -10510,7 +10796,7 @@
         <v>49.91349316555528</v>
       </c>
       <c r="I91" s="32">
-        <f>SQRT(H91)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.83221219631374632</v>
       </c>
       <c r="J91" s="18">
@@ -10518,23 +10804,24 @@
         <v>0.11574578530093829</v>
       </c>
       <c r="K91" s="32">
-        <f>$H$40*SQRT(D91)</f>
+        <f t="shared" si="19"/>
         <v>1.5660886433869905</v>
       </c>
       <c r="L91" s="18">
-        <f>K91-F91</f>
+        <f t="shared" si="20"/>
         <v>-3.2167178002605796</v>
       </c>
       <c r="M91" s="18">
-        <f>I91+F91</f>
+        <f t="shared" si="21"/>
         <v>5.6150186399613169</v>
       </c>
-      <c r="N91" s="18">
+      <c r="N91" s="18"/>
+      <c r="O91" s="18">
         <f t="shared" si="22"/>
         <v>-4.0489299965743264</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>9</v>
       </c>
@@ -10548,7 +10835,7 @@
         <v>33.526264436977328</v>
       </c>
       <c r="F92" s="6">
-        <f>SQRT(E92)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>4.8053386812118548</v>
       </c>
       <c r="G92" s="18">
@@ -10559,7 +10846,7 @@
         <v>53.200221464755543</v>
       </c>
       <c r="I92" s="32">
-        <f>SQRT(H92)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.85917536076375323</v>
       </c>
       <c r="J92" s="18">
@@ -10567,23 +10854,24 @@
         <v>0.11949587771401296</v>
       </c>
       <c r="K92" s="32">
-        <f>$H$40*SQRT(D92)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L92" s="18">
-        <f>K92-F92</f>
+        <f t="shared" si="20"/>
         <v>-4.8053386812118548</v>
       </c>
       <c r="M92" s="18">
-        <f>I92+F92</f>
+        <f t="shared" si="21"/>
         <v>5.6645140419756084</v>
       </c>
-      <c r="N92" s="18">
+      <c r="N92" s="18"/>
+      <c r="O92" s="18">
         <f t="shared" si="22"/>
         <v>-5.6645140419756084</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>10</v>
       </c>
@@ -10597,7 +10885,7 @@
         <v>32.046534350260849</v>
       </c>
       <c r="F93" s="6">
-        <f>SQRT(E93)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>4.6980967280143719</v>
       </c>
       <c r="G93" s="18">
@@ -10608,7 +10896,7 @@
         <v>48.893702511906469</v>
       </c>
       <c r="I93" s="32">
-        <f>SQRT(H93)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.8236667919190499</v>
       </c>
       <c r="J93" s="18">
@@ -10616,23 +10904,24 @@
         <v>0.1145572728677399</v>
       </c>
       <c r="K93" s="32">
-        <f>$H$40*SQRT(D93)</f>
+        <f t="shared" si="19"/>
         <v>1.5660318539846454</v>
       </c>
       <c r="L93" s="18">
-        <f>K93-F93</f>
+        <f t="shared" si="20"/>
         <v>-3.1320648740297266</v>
       </c>
       <c r="M93" s="18">
-        <f>I93+F93</f>
+        <f t="shared" si="21"/>
         <v>5.5217635199334216</v>
       </c>
-      <c r="N93" s="18">
+      <c r="N93" s="18"/>
+      <c r="O93" s="18">
         <f t="shared" si="22"/>
         <v>-3.9557316659487762</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>8</v>
       </c>
@@ -10646,7 +10935,7 @@
         <v>61.288388937137334</v>
       </c>
       <c r="F94" s="7">
-        <f>SQRT(E94)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>6.4971145202537297</v>
       </c>
       <c r="G94" s="18">
@@ -10657,7 +10946,7 @@
         <v>64.233318434896233</v>
       </c>
       <c r="I94" s="33">
-        <f>SQRT(H94)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.94407233964766635</v>
       </c>
       <c r="J94" s="18">
@@ -10665,23 +10954,24 @@
         <v>0.13130352429035694</v>
       </c>
       <c r="K94" s="33">
-        <f>$H$40*SQRT(D94)</f>
+        <f t="shared" si="19"/>
         <v>5.6424773033462889</v>
       </c>
       <c r="L94" s="18">
-        <f>K94-F94</f>
+        <f t="shared" si="20"/>
         <v>-0.85463721690744077</v>
       </c>
       <c r="M94" s="18">
-        <f>I94+F94</f>
+        <f t="shared" si="21"/>
         <v>7.4411868599013964</v>
       </c>
-      <c r="N94" s="18">
+      <c r="N94" s="18"/>
+      <c r="O94" s="18">
         <f t="shared" si="22"/>
         <v>-1.7987095565551074</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>9</v>
       </c>
@@ -10695,7 +10985,7 @@
         <v>59.641589866520619</v>
       </c>
       <c r="F95" s="7">
-        <f>SQRT(E95)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>6.4092324834025085</v>
       </c>
       <c r="G95" s="18">
@@ -10706,7 +10996,7 @@
         <v>62.180682772691377</v>
       </c>
       <c r="I95" s="33">
-        <f>SQRT(H95)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.92886550962734982</v>
       </c>
       <c r="J95" s="18">
@@ -10714,23 +11004,24 @@
         <v>0.12918852706917244</v>
       </c>
       <c r="K95" s="33">
-        <f>$H$40*SQRT(D95)</f>
+        <f t="shared" si="19"/>
         <v>5.6153090001195025</v>
       </c>
       <c r="L95" s="18">
-        <f>K95-F95</f>
+        <f t="shared" si="20"/>
         <v>-0.79392348328300599</v>
       </c>
       <c r="M95" s="18">
-        <f>I95+F95</f>
+        <f t="shared" si="21"/>
         <v>7.3380979930298587</v>
       </c>
-      <c r="N95" s="18">
+      <c r="N95" s="18"/>
+      <c r="O95" s="18">
         <f t="shared" si="22"/>
         <v>-1.7227889929103561</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>10</v>
       </c>
@@ -10744,7 +11035,7 @@
         <v>61.091079548684299</v>
       </c>
       <c r="F96" s="7">
-        <f>SQRT(E96)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>6.4866478141038817</v>
       </c>
       <c r="G96" s="18">
@@ -10755,7 +11046,7 @@
         <v>63.540908617046441</v>
       </c>
       <c r="I96" s="33">
-        <f>SQRT(H96)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.93897018901638585</v>
       </c>
       <c r="J96" s="18">
@@ -10763,23 +11054,24 @@
         <v>0.13059390667821777</v>
       </c>
       <c r="K96" s="33">
-        <f>$H$40*SQRT(D96)</f>
+        <f t="shared" si="19"/>
         <v>5.6642322229541691</v>
       </c>
       <c r="L96" s="18">
-        <f>K96-F96</f>
+        <f t="shared" si="20"/>
         <v>-0.82241559114971263</v>
       </c>
       <c r="M96" s="18">
-        <f>I96+F96</f>
+        <f t="shared" si="21"/>
         <v>7.4256180031202677</v>
       </c>
-      <c r="N96" s="18">
+      <c r="N96" s="18"/>
+      <c r="O96" s="18">
         <f t="shared" si="22"/>
         <v>-1.7613857801660986</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>8</v>
       </c>
@@ -10793,7 +11085,7 @@
         <v>68.662268606575779</v>
       </c>
       <c r="F97" s="6">
-        <f>SQRT(E97)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>6.8768649146369825</v>
       </c>
       <c r="G97" s="18">
@@ -10804,7 +11096,7 @@
         <v>66.310547888445527</v>
       </c>
       <c r="I97" s="32">
-        <f>SQRT(H97)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.9592159727438192</v>
       </c>
       <c r="J97" s="18">
@@ -10812,23 +11104,24 @@
         <v>0.13340973195324327</v>
       </c>
       <c r="K97" s="32">
-        <f>$H$40*SQRT(D97)</f>
+        <f t="shared" si="19"/>
         <v>6.4147177418193282</v>
       </c>
       <c r="L97" s="18">
-        <f>K97-F97</f>
+        <f t="shared" si="20"/>
         <v>-0.46214717281765427</v>
       </c>
       <c r="M97" s="18">
-        <f>I97+F97</f>
+        <f t="shared" si="21"/>
         <v>7.8360808873808017</v>
       </c>
-      <c r="N97" s="18">
+      <c r="N97" s="18"/>
+      <c r="O97" s="18">
         <f t="shared" si="22"/>
         <v>-1.4213631455614735</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>9</v>
       </c>
@@ -10842,7 +11135,7 @@
         <v>67.233212259138654</v>
       </c>
       <c r="F98" s="6">
-        <f>SQRT(E98)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>6.8049251072502672</v>
       </c>
       <c r="G98" s="18">
@@ -10853,7 +11146,7 @@
         <v>69.314774092667875</v>
       </c>
       <c r="I98" s="32">
-        <f>SQRT(H98)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.98070412023460729</v>
       </c>
       <c r="J98" s="18">
@@ -10861,23 +11154,24 @@
         <v>0.1363983477377757</v>
       </c>
       <c r="K98" s="32">
-        <f>$H$40*SQRT(D98)</f>
+        <f t="shared" si="19"/>
         <v>6.0277057640936524</v>
       </c>
       <c r="L98" s="18">
-        <f>K98-F98</f>
+        <f t="shared" si="20"/>
         <v>-0.77721934315661478</v>
       </c>
       <c r="M98" s="18">
-        <f>I98+F98</f>
+        <f t="shared" si="21"/>
         <v>7.7856292274848746</v>
       </c>
-      <c r="N98" s="18">
+      <c r="N98" s="18"/>
+      <c r="O98" s="18">
         <f t="shared" si="22"/>
         <v>-1.7579234633912222</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>10</v>
       </c>
@@ -10891,7 +11185,7 @@
         <v>68.768266530469589</v>
       </c>
       <c r="F99" s="6">
-        <f>SQRT(E99)*$I$82</f>
+        <f t="shared" si="17"/>
         <v>6.8821709750933957</v>
       </c>
       <c r="G99" s="18">
@@ -10902,7 +11196,7 @@
         <v>70.152854828480599</v>
       </c>
       <c r="I99" s="32">
-        <f>SQRT(H99)*$G$62</f>
+        <f t="shared" si="18"/>
         <v>0.98661512358594294</v>
       </c>
       <c r="J99" s="18">
@@ -10910,23 +11204,24 @@
         <v>0.13722046225117426</v>
       </c>
       <c r="K99" s="32">
-        <f>$H$40*SQRT(D99)</f>
+        <f t="shared" si="19"/>
         <v>6.1558391740667666</v>
       </c>
       <c r="L99" s="18">
-        <f>K99-F99</f>
+        <f t="shared" si="20"/>
         <v>-0.72633180102662909</v>
       </c>
       <c r="M99" s="18">
-        <f>I99+F99</f>
+        <f t="shared" si="21"/>
         <v>7.8687860986793385</v>
       </c>
-      <c r="N99" s="18">
+      <c r="N99" s="18"/>
+      <c r="O99" s="18">
         <f>K99-M99</f>
         <v>-1.7129469246125719</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="35" t="s">
         <v>51</v>
       </c>
@@ -10934,7 +11229,7 @@
         <v>3.5575999999999999</v>
       </c>
     </row>
-    <row r="105" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" ht="60" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="C105" s="15" t="s">
         <v>23</v>
@@ -10969,11 +11264,12 @@
       <c r="M105" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N105" s="34" t="s">
+      <c r="N105" s="34"/>
+      <c r="O105" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
         <v>8</v>
       </c>
@@ -10987,7 +11283,7 @@
         <v>17.712557610417349</v>
       </c>
       <c r="F106" s="7">
-        <f>SQRT(E106)*$I$82</f>
+        <f t="shared" ref="F106:F117" si="25">SQRT(E106)*$I$82</f>
         <v>3.4927866390525462</v>
       </c>
       <c r="G106" s="18"/>
@@ -10995,7 +11291,7 @@
         <v>22.790454945960363</v>
       </c>
       <c r="I106" s="33">
-        <f t="shared" ref="I106:I116" si="25">SQRT(H106)*$G$62</f>
+        <f t="shared" ref="I106:I116" si="26">SQRT(H106)*$G$62</f>
         <v>0.56234338552598051</v>
       </c>
       <c r="J106" s="18"/>
@@ -11004,19 +11300,20 @@
         <v>3.6496847657184635</v>
       </c>
       <c r="L106" s="18">
-        <f>K106-F106</f>
+        <f t="shared" ref="L106:L117" si="27">K106-F106</f>
         <v>0.15689812666591729</v>
       </c>
       <c r="M106" s="18">
-        <f t="shared" ref="M106:M116" si="26">I106+F106</f>
+        <f t="shared" ref="M106:M116" si="28">I106+F106</f>
         <v>4.0551300245785269</v>
       </c>
-      <c r="N106" s="37">
-        <f t="shared" ref="N106:N116" si="27">K106-M106</f>
+      <c r="N106" s="42"/>
+      <c r="O106" s="37">
+        <f t="shared" ref="O106:O116" si="29">K106-M106</f>
         <v>-0.40544525886006344</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>9</v>
       </c>
@@ -11030,7 +11327,7 @@
         <v>16.859004461860582</v>
       </c>
       <c r="F107" s="7">
-        <f>SQRT(E107)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>3.4075903677927517</v>
       </c>
       <c r="G107" s="18"/>
@@ -11038,28 +11335,29 @@
         <v>20.727594593341699</v>
       </c>
       <c r="I107" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.53628981207499682</v>
       </c>
       <c r="J107" s="18"/>
       <c r="K107" s="33">
-        <f t="shared" ref="K107:K117" si="28">$D$102*SQRT(D107)</f>
+        <f t="shared" ref="K107:K117" si="30">$D$102*SQRT(D107)</f>
         <v>3.7128072666376082</v>
       </c>
       <c r="L107" s="18">
-        <f>K107-F107</f>
+        <f t="shared" si="27"/>
         <v>0.30521689884485648</v>
       </c>
       <c r="M107" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.9438801798677483</v>
       </c>
-      <c r="N107" s="37">
-        <f t="shared" si="27"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="37">
+        <f t="shared" si="29"/>
         <v>-0.23107291323014012</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>10</v>
       </c>
@@ -11073,7 +11371,7 @@
         <v>17.300053439952322</v>
       </c>
       <c r="F108" s="7">
-        <f>SQRT(E108)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>3.4518756432113702</v>
       </c>
       <c r="G108" s="18"/>
@@ -11081,28 +11379,29 @@
         <v>21.465801684486976</v>
       </c>
       <c r="I108" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.54575616486611389</v>
       </c>
       <c r="J108" s="18"/>
       <c r="K108" s="33">
+        <f t="shared" si="30"/>
+        <v>3.5556357748983953</v>
+      </c>
+      <c r="L108" s="18">
+        <f t="shared" si="27"/>
+        <v>0.10376013168702514</v>
+      </c>
+      <c r="M108" s="18">
         <f t="shared" si="28"/>
-        <v>3.5556357748983953</v>
-      </c>
-      <c r="L108" s="18">
-        <f>K108-F108</f>
-        <v>0.10376013168702514</v>
-      </c>
-      <c r="M108" s="18">
-        <f t="shared" si="26"/>
         <v>3.9976318080774842</v>
       </c>
-      <c r="N108" s="37">
-        <f t="shared" si="27"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="37">
+        <f t="shared" si="29"/>
         <v>-0.44199603317908887</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>8</v>
       </c>
@@ -11116,7 +11415,7 @@
         <v>33.212592199377731</v>
       </c>
       <c r="F109" s="6">
-        <f>SQRT(E109)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>4.7828064436475701</v>
       </c>
       <c r="G109" s="18"/>
@@ -11124,28 +11423,29 @@
         <v>49.91349316555528</v>
       </c>
       <c r="I109" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.83221219631374632</v>
       </c>
       <c r="J109" s="18"/>
       <c r="K109" s="32">
+        <f t="shared" si="30"/>
+        <v>2.4399408238809035</v>
+      </c>
+      <c r="L109" s="18">
+        <f t="shared" si="27"/>
+        <v>-2.3428656197666666</v>
+      </c>
+      <c r="M109" s="18">
         <f t="shared" si="28"/>
-        <v>2.4399408238809035</v>
-      </c>
-      <c r="L109" s="18">
-        <f>K109-F109</f>
-        <v>-2.3428656197666666</v>
-      </c>
-      <c r="M109" s="18">
-        <f t="shared" si="26"/>
         <v>5.6150186399613169</v>
       </c>
-      <c r="N109" s="37">
-        <f t="shared" si="27"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="37">
+        <f t="shared" si="29"/>
         <v>-3.1750778160804134</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>9</v>
       </c>
@@ -11159,7 +11459,7 @@
         <v>33.526264436977328</v>
       </c>
       <c r="F110" s="6">
-        <f>SQRT(E110)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>4.8053386812118548</v>
       </c>
       <c r="G110" s="18"/>
@@ -11167,28 +11467,29 @@
         <v>53.200221464755543</v>
       </c>
       <c r="I110" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.85917536076375323</v>
       </c>
       <c r="J110" s="18"/>
       <c r="K110" s="32">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="18">
+        <f t="shared" si="27"/>
+        <v>-4.8053386812118548</v>
+      </c>
+      <c r="M110" s="18">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L110" s="18">
-        <f>K110-F110</f>
-        <v>-4.8053386812118548</v>
-      </c>
-      <c r="M110" s="18">
-        <f t="shared" si="26"/>
         <v>5.6645140419756084</v>
       </c>
-      <c r="N110" s="37">
-        <f t="shared" si="27"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="37">
+        <f t="shared" si="29"/>
         <v>-5.6645140419756084</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>10</v>
       </c>
@@ -11202,7 +11503,7 @@
         <v>32.046534350260849</v>
       </c>
       <c r="F111" s="6">
-        <f>SQRT(E111)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>4.6980967280143719</v>
       </c>
       <c r="G111" s="18"/>
@@ -11210,28 +11511,29 @@
         <v>48.893702511906469</v>
       </c>
       <c r="I111" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.8236667919190499</v>
       </c>
       <c r="J111" s="18"/>
       <c r="K111" s="32">
+        <f t="shared" si="30"/>
+        <v>2.4398523469088427</v>
+      </c>
+      <c r="L111" s="18">
+        <f t="shared" si="27"/>
+        <v>-2.2582443811055293</v>
+      </c>
+      <c r="M111" s="18">
         <f t="shared" si="28"/>
-        <v>2.4398523469088427</v>
-      </c>
-      <c r="L111" s="18">
-        <f>K111-F111</f>
-        <v>-2.2582443811055293</v>
-      </c>
-      <c r="M111" s="18">
-        <f t="shared" si="26"/>
         <v>5.5217635199334216</v>
       </c>
-      <c r="N111" s="37">
-        <f t="shared" si="27"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="37">
+        <f t="shared" si="29"/>
         <v>-3.081911173024579</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
         <v>8</v>
       </c>
@@ -11245,7 +11547,7 @@
         <v>61.288388937137334</v>
       </c>
       <c r="F112" s="7">
-        <f>SQRT(E112)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>6.4971145202537297</v>
       </c>
       <c r="G112" s="18"/>
@@ -11253,28 +11555,29 @@
         <v>64.233318434896233</v>
       </c>
       <c r="I112" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.94407233964766635</v>
       </c>
       <c r="J112" s="18"/>
       <c r="K112" s="33">
+        <f t="shared" si="30"/>
+        <v>8.790888547969665</v>
+      </c>
+      <c r="L112" s="18">
+        <f t="shared" si="27"/>
+        <v>2.2937740277159353</v>
+      </c>
+      <c r="M112" s="18">
         <f t="shared" si="28"/>
-        <v>8.790888547969665</v>
-      </c>
-      <c r="L112" s="18">
-        <f>K112-F112</f>
-        <v>2.2937740277159353</v>
-      </c>
-      <c r="M112" s="18">
-        <f t="shared" si="26"/>
         <v>7.4411868599013964</v>
       </c>
-      <c r="N112" s="37">
-        <f t="shared" si="27"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="37">
+        <f t="shared" si="29"/>
         <v>1.3497016880682686</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
         <v>9</v>
       </c>
@@ -11288,7 +11591,7 @@
         <v>59.641589866520619</v>
       </c>
       <c r="F113" s="7">
-        <f>SQRT(E113)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>6.4092324834025085</v>
       </c>
       <c r="G113" s="18"/>
@@ -11296,28 +11599,29 @@
         <v>62.180682772691377</v>
       </c>
       <c r="I113" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.92886550962734982</v>
       </c>
       <c r="J113" s="18"/>
       <c r="K113" s="33">
+        <f t="shared" si="30"/>
+        <v>8.7485607701401484</v>
+      </c>
+      <c r="L113" s="18">
+        <f t="shared" si="27"/>
+        <v>2.3393282867376399</v>
+      </c>
+      <c r="M113" s="18">
         <f t="shared" si="28"/>
-        <v>8.7485607701401484</v>
-      </c>
-      <c r="L113" s="18">
-        <f>K113-F113</f>
-        <v>2.3393282867376399</v>
-      </c>
-      <c r="M113" s="18">
-        <f t="shared" si="26"/>
         <v>7.3380979930298587</v>
       </c>
-      <c r="N113" s="37">
-        <f t="shared" si="27"/>
+      <c r="N113" s="42"/>
+      <c r="O113" s="37">
+        <f t="shared" si="29"/>
         <v>1.4104627771102898</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
         <v>10</v>
       </c>
@@ -11331,7 +11635,7 @@
         <v>61.091079548684299</v>
       </c>
       <c r="F114" s="7">
-        <f>SQRT(E114)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>6.4866478141038817</v>
       </c>
       <c r="G114" s="18"/>
@@ -11339,28 +11643,29 @@
         <v>63.540908617046441</v>
       </c>
       <c r="I114" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.93897018901638585</v>
       </c>
       <c r="J114" s="18"/>
       <c r="K114" s="33">
+        <f t="shared" si="30"/>
+        <v>8.824782361513142</v>
+      </c>
+      <c r="L114" s="18">
+        <f t="shared" si="27"/>
+        <v>2.3381345474092603</v>
+      </c>
+      <c r="M114" s="18">
         <f t="shared" si="28"/>
-        <v>8.824782361513142</v>
-      </c>
-      <c r="L114" s="18">
-        <f>K114-F114</f>
-        <v>2.3381345474092603</v>
-      </c>
-      <c r="M114" s="18">
-        <f t="shared" si="26"/>
         <v>7.4256180031202677</v>
       </c>
-      <c r="N114" s="37">
-        <f t="shared" si="27"/>
+      <c r="N114" s="42"/>
+      <c r="O114" s="37">
+        <f t="shared" si="29"/>
         <v>1.3991643583928743</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
         <v>8</v>
       </c>
@@ -11374,7 +11679,7 @@
         <v>68.662268606575779</v>
       </c>
       <c r="F115" s="6">
-        <f>SQRT(E115)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>6.8768649146369825</v>
       </c>
       <c r="G115" s="18"/>
@@ -11382,28 +11687,29 @@
         <v>66.310547888445527</v>
       </c>
       <c r="I115" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.9592159727438192</v>
       </c>
       <c r="J115" s="18"/>
       <c r="K115" s="32">
+        <f t="shared" si="30"/>
+        <v>9.9940266842676468</v>
+      </c>
+      <c r="L115" s="18">
+        <f t="shared" si="27"/>
+        <v>3.1171617696306644</v>
+      </c>
+      <c r="M115" s="18">
         <f t="shared" si="28"/>
-        <v>9.9940266842676468</v>
-      </c>
-      <c r="L115" s="18">
-        <f>K115-F115</f>
-        <v>3.1171617696306644</v>
-      </c>
-      <c r="M115" s="18">
-        <f t="shared" si="26"/>
         <v>7.8360808873808017</v>
       </c>
-      <c r="N115" s="37">
-        <f t="shared" si="27"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="37">
+        <f t="shared" si="29"/>
         <v>2.1579457968868452</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
         <v>9</v>
       </c>
@@ -11417,7 +11723,7 @@
         <v>67.233212259138654</v>
       </c>
       <c r="F116" s="6">
-        <f>SQRT(E116)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>6.8049251072502672</v>
       </c>
       <c r="G116" s="18"/>
@@ -11425,28 +11731,29 @@
         <v>69.314774092667875</v>
       </c>
       <c r="I116" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.98070412023460729</v>
       </c>
       <c r="J116" s="18"/>
       <c r="K116" s="32">
+        <f t="shared" si="30"/>
+        <v>9.3910682707888604</v>
+      </c>
+      <c r="L116" s="18">
+        <f t="shared" si="27"/>
+        <v>2.5861431635385932</v>
+      </c>
+      <c r="M116" s="18">
         <f t="shared" si="28"/>
-        <v>9.3910682707888604</v>
-      </c>
-      <c r="L116" s="18">
-        <f>K116-F116</f>
-        <v>2.5861431635385932</v>
-      </c>
-      <c r="M116" s="18">
-        <f t="shared" si="26"/>
         <v>7.7856292274848746</v>
       </c>
-      <c r="N116" s="37">
-        <f t="shared" si="27"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="37">
+        <f t="shared" si="29"/>
         <v>1.6054390433039858</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
         <v>10</v>
       </c>
@@ -11460,7 +11767,7 @@
         <v>68.768266530469589</v>
       </c>
       <c r="F117" s="6">
-        <f>SQRT(E117)*$I$82</f>
+        <f t="shared" si="25"/>
         <v>6.8821709750933957</v>
       </c>
       <c r="G117" s="18"/>
@@ -11473,18 +11780,19 @@
       </c>
       <c r="J117" s="18"/>
       <c r="K117" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.5906980549754852</v>
       </c>
       <c r="L117" s="18">
-        <f>K117-F117</f>
+        <f t="shared" si="27"/>
         <v>2.7085270798820895</v>
       </c>
       <c r="M117" s="18">
         <f>I117+F117</f>
         <v>7.8687860986793385</v>
       </c>
-      <c r="N117" s="37">
+      <c r="N117" s="42"/>
+      <c r="O117" s="37">
         <f>K117-M117</f>
         <v>1.7219119562961467</v>
       </c>
